--- a/Översikt MUNKEDAL.xlsx
+++ b/Översikt MUNKEDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44342</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43578</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43858</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44920</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43695</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44676</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44903</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43562</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43650</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44217</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44601</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44734</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>44943</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>44978</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43342</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43342</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43363</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43385</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43391</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43406</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43416</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43431</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43432</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>43442</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43499</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43499</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43499</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43501</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43510</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43516</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43522</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43527</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43535</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43549</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43549</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43549</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43559</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43559</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43562</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43562</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43628</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43630</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43632</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43632</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43641</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43696</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43711</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43711</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43720</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43731</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43732</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43733</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43766</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43768</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43781</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43791</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43794</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43812</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43829</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43833</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43833</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43851</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43858</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43860</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43861</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43861</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43869</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43878</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43895</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43896</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43896</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43896</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43899</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43899</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43924</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43928</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43932</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43945</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43983</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44011</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44014</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44014</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44046</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44062</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44062</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44063</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44063</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44070</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44070</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44071</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44078</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44086</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44105</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44112</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44112</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44112</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44129</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44152</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44152</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44155</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44160</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44170</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44171</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44200</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44206</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44216</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44223</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44228</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44238</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44242</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44251</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44256</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44277</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44277</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44299</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44318</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44325</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44356</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44356</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44356</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44357</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44358</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44361</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44369</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44404</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44404</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44411</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44411</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44412</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44414</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44426</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44432</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44433</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44436</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44438</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44439</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44441</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44447</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44454</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44459</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44467</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44473</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44487</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44497</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44515</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44523</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44525</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44527</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44563</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44563</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44563</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44573</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44575</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44579</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44579</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44581</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44588</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44588</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44606</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44608</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44608</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44609</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44609</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44622</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44664</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44678</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44686</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44690</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44694</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44698</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44698</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44734</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44739</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44747</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44748</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44748</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44749</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44760</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44806</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44806</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44817</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44818</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44823</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44827</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44834</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44839</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44866</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44866</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44866</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44866</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44866</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44866</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44866</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44866</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44873</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44888</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44897</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44903</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44931</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44935</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44938</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44945</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44946</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44952</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44958</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44964</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44972</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44984</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44984</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44993</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45002</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45002</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45012</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45021</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45022</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45029</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45034</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45041</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45044</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45047</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45049</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45049</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45055</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45061</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45071</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45072</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>45072</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>45084</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45093</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45097</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45106</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>45127</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45127</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45127</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>45127</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45147</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45147</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>45149</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45153</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45153</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45155</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45155</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45159</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>

--- a/Översikt MUNKEDAL.xlsx
+++ b/Översikt MUNKEDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44342</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43578</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43858</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44920</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43695</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44676</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44903</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43562</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43650</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44217</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44601</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44734</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>44943</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>44978</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43342</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43342</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43363</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43385</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43391</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43406</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43416</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43431</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43432</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>43442</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43499</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43499</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43499</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43501</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43510</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43516</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43522</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43527</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43535</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43549</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43549</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43549</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43559</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43559</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43562</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43562</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43628</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43630</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43632</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43632</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43641</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43696</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43711</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43711</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43720</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43731</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43732</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43733</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43766</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43768</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43781</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43791</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43794</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43812</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43829</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43833</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43833</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43851</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43858</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43860</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43861</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43861</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43869</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43878</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43895</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43896</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43896</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43896</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43899</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43899</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43924</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43928</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43932</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43945</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43983</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44011</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44014</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44014</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44046</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44062</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44062</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44063</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44063</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44070</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44070</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44071</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44078</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44086</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44105</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44112</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44112</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44112</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44129</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44152</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44152</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44155</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44160</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44170</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44171</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44200</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44206</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44216</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44223</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44228</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44238</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44242</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44251</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44256</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44277</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44277</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44299</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44318</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44325</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44356</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44356</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44356</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44357</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44358</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44361</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44369</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44404</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44404</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44411</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44411</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44412</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44414</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44426</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44432</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44433</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44436</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44438</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44439</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44441</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44447</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44454</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44459</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44467</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44473</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44487</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44497</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44515</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44523</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44525</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44527</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44563</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44563</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44563</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44573</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44575</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44579</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44579</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44581</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44588</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44588</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44606</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44608</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44608</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44609</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44609</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44622</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44664</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44678</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44686</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44690</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44694</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44698</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44698</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44734</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44739</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44747</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44748</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44748</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44749</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44760</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44806</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44806</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44817</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44818</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44823</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44827</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44834</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44839</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44866</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44866</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44866</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44866</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44866</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44866</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44866</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44866</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44873</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44888</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44897</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44903</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44931</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44935</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44938</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44945</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44946</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44952</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44958</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44964</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44972</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44984</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44984</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44993</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45002</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45002</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45012</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45021</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45022</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45029</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45034</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45041</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45044</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45047</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45049</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45049</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45055</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45061</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45071</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45072</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>45072</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>45084</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45093</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45097</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45106</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>45127</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45127</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45127</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>45127</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45147</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45147</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>45149</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45153</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45153</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45155</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45155</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45159</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>

--- a/Översikt MUNKEDAL.xlsx
+++ b/Översikt MUNKEDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44342</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43578</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43858</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44920</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43695</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44676</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44903</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43562</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43650</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44217</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44601</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44734</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>44943</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>44978</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43342</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43342</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43363</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43385</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43391</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43406</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43416</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43431</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43432</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>43442</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43499</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43499</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43499</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43501</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43510</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43516</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43522</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43527</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43535</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43549</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43549</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43549</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43559</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43559</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43562</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43562</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43628</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43630</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43632</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43632</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43641</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43696</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43711</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43711</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43720</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43731</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43732</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43733</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43766</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43768</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43781</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43791</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43794</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43812</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43829</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43833</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43833</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43851</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43858</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43860</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43861</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43861</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43869</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43878</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43895</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43896</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43896</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43896</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43899</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43899</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43924</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43928</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43932</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43945</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43983</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44011</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44014</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44014</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44046</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44062</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44062</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44063</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44063</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44070</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44070</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44071</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44078</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44086</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44105</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44112</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44112</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44112</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44129</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44152</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44152</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44155</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44160</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44170</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44171</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44200</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44206</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44216</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44223</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44228</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44238</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44242</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44251</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44256</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44277</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44277</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44299</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44318</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44325</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44356</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44356</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44356</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44357</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44358</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44361</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44369</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44404</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44404</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44411</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44411</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44412</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44414</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44426</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44432</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44433</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44436</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44438</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44439</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44441</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44447</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44454</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44459</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44467</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44473</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44487</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44497</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44515</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44523</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44525</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44527</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44563</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44563</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44563</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44573</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44575</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44579</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44579</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44581</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44588</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44588</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44606</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44608</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44608</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44609</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44609</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44622</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44664</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44678</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44686</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44690</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44694</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44698</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44698</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44734</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44739</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44747</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44748</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44748</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44749</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44760</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44806</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44806</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44817</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44818</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44823</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44827</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44834</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44839</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44866</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44866</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44866</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44866</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44866</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44866</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44866</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44866</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44873</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44888</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44897</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44903</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44931</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44935</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44938</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44945</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44946</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44952</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44958</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44964</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44972</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44984</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44984</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44993</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45002</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45002</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45012</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45021</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45022</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45029</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45034</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45041</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45044</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45047</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45049</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45049</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45055</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45061</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45071</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45072</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>45072</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>45084</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45093</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45097</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45106</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>45127</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45127</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45127</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>45127</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45147</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45147</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>45149</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45153</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45153</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45155</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45155</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45159</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>

--- a/Översikt MUNKEDAL.xlsx
+++ b/Översikt MUNKEDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44342</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43578</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43858</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44920</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43695</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44676</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44903</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43562</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43650</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44217</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44601</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44734</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>44943</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>44978</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43342</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43342</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43363</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43385</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43391</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43406</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43416</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43431</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43432</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>43442</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43499</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43499</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43499</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43501</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43510</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43516</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43522</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43527</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43535</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43549</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43549</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43549</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43559</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43559</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43562</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43562</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43628</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43630</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43632</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43632</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43641</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43696</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43711</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43711</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43720</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43731</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43732</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43733</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43766</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43768</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43781</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43791</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43794</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43812</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43829</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43833</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43833</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43851</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43858</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43860</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43861</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43861</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43869</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43878</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43895</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43896</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43896</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43896</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43899</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43899</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43924</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43928</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43932</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43945</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43983</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44011</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44014</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44014</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44046</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44062</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44062</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44063</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44063</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44070</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44070</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44071</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44078</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44086</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44105</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44112</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44112</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44112</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44129</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44152</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44152</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44155</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44160</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44170</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44171</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44200</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44206</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44216</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44223</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44228</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44238</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44242</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44251</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44256</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44277</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44277</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44299</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44318</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44325</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44356</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44356</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44356</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44357</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44358</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44361</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44369</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44404</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44404</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44411</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44411</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44412</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44414</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44426</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44432</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44433</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44436</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44438</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44439</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44441</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44447</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44454</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44459</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44467</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44473</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44487</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44497</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44515</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44523</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44525</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44527</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44563</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44563</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44563</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44573</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44575</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44579</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44579</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44581</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44588</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44588</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44606</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44608</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44608</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44609</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44609</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44622</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44664</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44678</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44686</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44690</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44694</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44698</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44698</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44734</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44739</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44747</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44748</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44748</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44749</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44760</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44806</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44806</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44817</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44818</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44823</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44827</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44834</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44839</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44866</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44866</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44866</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44866</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44866</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44866</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44866</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44866</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44873</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44888</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44897</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44903</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44931</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44935</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44938</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44945</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44946</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44952</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44958</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44964</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44972</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44984</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44984</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44993</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45002</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45002</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45012</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45021</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45022</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45029</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45034</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45041</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45044</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45047</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45049</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45049</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45055</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45061</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45071</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45072</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>45072</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>45084</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45093</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45097</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45106</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>45127</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45127</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45127</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>45127</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45147</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45147</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>45149</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45153</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45153</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45155</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45155</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45159</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>

--- a/Översikt MUNKEDAL.xlsx
+++ b/Översikt MUNKEDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44342</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43578</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43858</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44920</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43695</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44676</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44903</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43562</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43650</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44217</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44601</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44734</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>44943</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>44978</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43342</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43342</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43363</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43385</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43391</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43406</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43416</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43431</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43432</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>43442</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43499</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43499</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43499</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43501</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43510</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43516</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43522</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43527</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43535</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43549</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43549</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43549</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43559</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43559</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43562</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43562</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43628</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43630</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43632</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43632</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43641</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43696</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43711</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43711</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43720</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43731</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43732</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43733</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43766</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43768</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43781</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43791</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43794</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43812</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43829</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43833</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43833</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43851</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43858</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43860</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43861</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43861</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43869</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43878</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43895</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43896</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43896</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43896</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43899</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43899</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43924</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43928</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43932</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43945</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43983</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44011</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44014</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44014</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44046</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44062</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44062</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44063</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44063</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44070</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44070</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44071</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44078</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44086</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44105</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44112</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44112</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44112</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44129</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44152</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44152</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44155</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44160</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44170</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44171</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44200</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44206</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44216</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44223</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44228</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44238</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44242</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44251</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44256</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44277</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44277</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44299</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44318</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44325</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44356</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44356</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44356</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44357</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44358</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44361</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44369</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44404</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44404</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44411</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44411</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44412</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44414</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44426</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44432</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44433</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44436</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44438</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44439</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44441</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44447</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44454</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44459</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44467</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44473</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44487</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44497</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44515</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44523</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44525</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44527</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44563</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44563</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44563</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44573</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44575</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44579</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44579</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44581</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44588</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44588</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44606</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44608</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44608</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44609</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44609</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44622</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44664</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44678</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44686</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44690</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44694</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44698</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44698</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44734</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44739</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44747</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44748</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44748</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44749</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44760</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44806</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44806</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44817</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44818</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44823</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44827</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44834</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44839</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44866</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44866</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44866</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44866</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44866</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44866</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44866</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44866</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44873</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44888</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44897</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44903</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44931</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44935</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44938</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44945</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44946</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44952</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44958</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44964</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44972</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44984</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44984</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44993</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45002</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45002</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45012</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45021</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45022</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45029</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45034</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45041</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45044</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45047</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45049</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45049</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45055</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45061</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45071</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45072</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>45072</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>45084</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45093</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45097</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45106</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>45127</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45127</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45127</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>45127</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45147</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45147</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>45149</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45153</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45153</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45155</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45155</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45159</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>

--- a/Översikt MUNKEDAL.xlsx
+++ b/Översikt MUNKEDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44342</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43578</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43858</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44920</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43695</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44676</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44903</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43562</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43650</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44217</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44601</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44734</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>44943</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>44978</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43342</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43342</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43363</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43385</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43391</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43406</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43416</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43431</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43432</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>43442</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43499</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43499</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43499</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43501</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43510</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43516</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43522</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43527</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43535</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43549</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43549</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43549</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43559</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43559</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43562</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43562</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43628</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43630</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43632</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43632</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43641</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43696</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43711</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43711</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43720</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43731</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43732</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43733</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43766</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43768</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43781</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43791</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43794</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43812</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43829</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43833</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43833</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43851</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43858</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43860</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43861</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43861</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43869</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43878</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43895</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43896</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43896</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43896</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43899</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43899</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43924</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43928</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43932</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43945</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43983</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44011</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44014</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44014</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44046</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44062</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44062</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44063</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44063</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44070</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44070</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44071</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44078</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44086</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44105</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44112</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44112</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44112</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44129</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44152</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44152</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44155</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44160</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44170</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44171</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44200</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44206</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44216</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44223</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44228</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44238</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44242</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44251</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44256</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44277</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44277</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44299</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44318</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44325</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44356</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44356</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44356</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44357</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44358</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44361</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44369</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44404</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44404</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44411</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44411</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44412</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44414</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44426</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44432</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44433</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44436</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44438</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44439</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44441</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44447</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44454</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44459</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44467</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44473</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44487</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44497</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44515</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44523</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44525</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44527</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44563</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44563</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44563</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44573</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44575</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44579</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44579</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44581</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44588</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44588</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44606</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44608</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44608</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44609</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44609</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44622</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44664</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44678</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44686</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44690</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44694</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44698</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44698</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44734</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44739</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44747</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44748</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44748</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44749</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44760</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44806</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44806</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44817</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44818</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44823</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44827</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44834</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44839</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44866</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44866</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44866</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44866</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44866</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44866</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44866</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44866</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44873</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44888</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44897</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44903</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44931</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44935</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44938</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44945</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44946</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44952</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44958</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44964</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44972</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44984</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44984</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44993</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45002</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45002</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45012</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45021</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45022</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45029</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45034</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45041</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45044</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45047</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45049</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45049</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45055</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45061</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45071</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45072</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>45072</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>45084</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45093</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45097</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45106</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>45127</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45127</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45127</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>45127</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45147</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45147</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>45149</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45153</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45153</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45155</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45155</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45159</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>

--- a/Översikt MUNKEDAL.xlsx
+++ b/Översikt MUNKEDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44342</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43578</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43858</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44920</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43695</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44676</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44903</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43562</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43650</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44217</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44601</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44734</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>44943</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>44978</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43342</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43342</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43363</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43385</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43391</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43406</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43416</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43431</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43432</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>43442</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43499</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43499</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43499</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43501</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43510</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43516</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43522</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43527</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43535</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43549</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43549</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43549</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43559</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43559</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43562</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43562</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43628</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43630</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43632</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43632</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43641</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43696</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43711</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43711</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43720</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43731</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43732</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43733</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43766</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43768</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43781</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43791</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43794</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43812</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43829</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43833</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43833</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43851</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43858</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43860</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43861</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43861</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43869</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43878</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43895</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43896</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43896</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43896</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43899</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43899</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43924</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43928</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43932</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43945</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43983</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44011</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44014</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44014</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44046</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44062</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44062</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44063</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44063</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44070</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44070</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44071</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44078</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44086</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44105</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44112</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44112</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44112</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44129</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44152</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44152</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44155</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44160</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44170</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44171</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44200</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44206</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44216</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44223</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44228</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44238</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44242</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44251</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44256</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44277</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44277</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44299</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44318</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44325</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44356</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44356</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44356</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44357</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44358</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44361</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44369</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44404</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44404</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44411</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44411</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44412</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44414</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44426</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44432</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44433</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44436</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44438</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44439</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44441</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44447</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44454</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44459</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44467</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44473</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44487</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44497</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44515</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44523</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44525</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44527</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44563</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44563</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44563</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44573</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44575</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44579</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44579</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44581</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44588</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44588</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44606</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44608</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44608</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44609</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44609</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44622</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44664</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44678</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44686</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44690</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44694</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44698</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44698</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44734</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44739</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44747</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44748</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44748</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44749</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44760</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44806</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44806</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44817</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44818</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44823</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44827</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44834</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44839</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44866</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44866</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44866</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44866</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44866</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44866</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44866</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44866</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44873</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44888</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44897</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44903</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44931</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44935</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44938</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44945</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44946</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44952</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44958</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44964</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44972</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44984</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44984</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44993</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45002</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45002</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45012</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45021</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45022</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45029</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45034</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45041</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45044</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45047</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45049</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45049</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45055</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45061</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45071</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45072</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>45072</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>45084</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45093</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45097</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45106</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>45127</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45127</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45127</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>45127</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45147</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45147</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>45149</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45153</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45153</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45155</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45155</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45159</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>

--- a/Översikt MUNKEDAL.xlsx
+++ b/Översikt MUNKEDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44342</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43578</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43858</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44920</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43695</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44676</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44903</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43562</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43650</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44217</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44601</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44734</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>44943</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>44978</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43342</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43342</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43363</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43385</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43391</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43406</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43416</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43431</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43432</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>43442</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43499</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43499</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43499</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43501</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43510</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43516</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43522</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43527</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43535</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43549</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43549</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43549</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43559</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43559</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43562</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43562</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43628</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43630</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43632</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43632</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43641</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43696</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43711</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43711</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43720</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43731</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43732</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43733</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43766</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43768</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43781</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43791</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43794</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43812</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43829</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43833</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43833</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43851</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43858</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43860</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43861</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43861</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43869</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43878</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43895</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43896</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43896</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43896</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43899</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43899</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43924</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43928</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43932</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43945</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43983</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44011</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44014</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44014</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44046</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44062</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44062</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44063</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44063</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44070</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44070</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44071</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44078</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44086</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44105</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44112</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44112</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44112</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44129</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44152</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44152</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44155</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44160</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44170</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44171</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44200</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44206</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44216</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44223</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44228</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44238</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44242</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44251</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44256</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44277</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44277</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44299</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44318</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44325</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44356</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44356</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44356</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44357</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44358</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44361</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44369</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44404</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44404</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44411</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44411</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44412</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44414</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44426</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44432</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44433</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44436</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44438</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44439</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44441</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44447</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44454</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44459</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44467</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44473</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44487</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44497</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44515</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44523</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44525</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44527</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44563</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44563</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44563</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44573</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44575</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44579</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44579</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44581</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44588</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44588</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44606</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44608</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44608</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44609</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44609</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44622</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44664</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44678</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44686</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44690</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44694</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44698</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44698</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44734</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44739</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44747</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44748</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44748</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44749</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44760</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44806</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44806</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44817</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44818</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44823</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44827</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44834</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44839</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44866</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44866</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44866</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44866</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44866</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44866</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44866</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44866</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44873</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44888</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44897</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44903</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44931</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44935</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44938</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44945</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44946</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44952</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44958</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44964</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44972</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44984</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44984</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44993</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45002</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45002</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45012</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45021</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45022</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45029</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45034</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45041</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45044</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45047</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45049</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45049</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45055</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45061</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45071</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45072</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>45072</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>45084</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45093</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45097</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45106</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>45127</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45127</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45127</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>45127</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45147</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45147</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>45149</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45153</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45153</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45155</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45155</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45159</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>

--- a/Översikt MUNKEDAL.xlsx
+++ b/Översikt MUNKEDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44342</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43578</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43858</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44920</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43695</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44676</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44903</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43562</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43650</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44217</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44601</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44734</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>44943</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>44978</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43342</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43342</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43363</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43385</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43391</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43406</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43416</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43431</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43432</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>43442</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43499</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43499</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43499</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43501</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43510</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43516</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43522</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43527</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43535</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43549</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43549</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43549</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43559</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43559</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43562</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43562</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43628</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43630</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43632</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43632</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43641</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43696</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43711</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43711</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43720</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43731</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43732</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43733</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43766</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43768</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43781</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43791</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43794</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43812</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43829</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43833</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43833</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43851</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43858</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43860</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43861</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43861</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43869</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43878</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43895</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43896</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43896</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43896</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43899</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43899</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43924</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43928</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43932</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43945</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43983</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44011</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44014</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44014</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44046</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44062</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44062</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44063</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44063</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44070</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44070</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44071</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44078</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44086</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44105</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44112</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44112</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44112</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44129</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44152</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44152</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44155</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44160</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44170</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44171</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44200</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44206</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44216</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44223</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44228</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44238</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44242</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44251</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44256</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44277</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44277</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44299</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44318</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44325</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44356</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44356</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44356</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44357</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44358</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44361</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44369</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44404</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44404</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44411</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44411</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44412</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44414</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44426</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44432</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44433</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44436</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44438</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44439</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44441</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44447</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44454</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44459</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44467</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44473</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44487</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44497</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44515</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44523</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44525</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44527</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44563</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44563</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44563</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44573</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44575</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44579</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44579</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44581</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44588</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44588</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44606</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44608</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44608</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44609</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44609</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44622</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44664</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44678</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44686</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44690</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44694</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44698</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44698</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44734</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44739</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44747</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44748</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44748</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44749</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44760</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44806</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44806</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44817</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44818</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44823</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44827</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44834</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44839</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44866</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44866</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44866</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44866</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44866</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44866</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44866</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44866</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44873</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44888</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44897</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44903</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44931</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44935</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44938</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44945</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44946</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44952</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44958</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44964</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44972</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44984</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44984</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44993</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45002</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45002</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45012</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45021</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45022</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45029</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45034</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45041</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45044</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45047</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45049</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45049</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45055</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45061</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45071</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45072</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>45072</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>45084</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45093</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45097</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45106</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>45127</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45127</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45127</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>45127</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45147</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45147</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>45149</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45153</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45153</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45155</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45155</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45159</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>

--- a/Översikt MUNKEDAL.xlsx
+++ b/Översikt MUNKEDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44342</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,27 +629,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 25404-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 25404-2021.xlsx", "A 25404-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 25404-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 25404-2021.png", "A 25404-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 25404-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 25404-2021.docx", "A 25404-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 25404-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 25404-2021.docx", "A 25404-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 25404-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 25404-2021.docx", "A 25404-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 25404-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 25404-2021.docx", "A 25404-2021")</f>
         <v/>
       </c>
     </row>
@@ -663,7 +663,7 @@
         <v>43578</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -718,27 +718,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 20974-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 20974-2019.xlsx", "A 20974-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 20974-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 20974-2019.png", "A 20974-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 20974-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 20974-2019.docx", "A 20974-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 20974-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 20974-2019.docx", "A 20974-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 20974-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 20974-2019.docx", "A 20974-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 20974-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 20974-2019.docx", "A 20974-2019")</f>
         <v/>
       </c>
     </row>
@@ -752,7 +752,7 @@
         <v>43819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,27 +805,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 1067-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 1067-2020.xlsx", "A 1067-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 1067-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 1067-2020.png", "A 1067-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 1067-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 1067-2020.docx", "A 1067-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 1067-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 1067-2020.docx", "A 1067-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 1067-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 1067-2020.docx", "A 1067-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 1067-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 1067-2020.docx", "A 1067-2020")</f>
         <v/>
       </c>
     </row>
@@ -839,7 +839,7 @@
         <v>43858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -892,27 +892,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 5516-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 5516-2020.xlsx", "A 5516-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 5516-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 5516-2020.png", "A 5516-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 5516-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 5516-2020.docx", "A 5516-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 5516-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 5516-2020.docx", "A 5516-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 5516-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 5516-2020.docx", "A 5516-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 5516-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 5516-2020.docx", "A 5516-2020")</f>
         <v/>
       </c>
     </row>
@@ -926,7 +926,7 @@
         <v>43858</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -979,27 +979,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 5490-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 5490-2020.xlsx", "A 5490-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 5490-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 5490-2020.png", "A 5490-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 5490-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 5490-2020.docx", "A 5490-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 5490-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 5490-2020.docx", "A 5490-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 5490-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 5490-2020.docx", "A 5490-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 5490-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 5490-2020.docx", "A 5490-2020")</f>
         <v/>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
         <v>44920</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1066,27 +1066,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 62104-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 62104-2022.xlsx", "A 62104-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 62104-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 62104-2022.png", "A 62104-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 62104-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 62104-2022.docx", "A 62104-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 62104-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 62104-2022.docx", "A 62104-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 62104-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 62104-2022.docx", "A 62104-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 62104-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 62104-2022.docx", "A 62104-2022")</f>
         <v/>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
         <v>43695</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,27 +1152,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 41077-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 41077-2019.xlsx", "A 41077-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 41077-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 41077-2019.png", "A 41077-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 41077-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 41077-2019.docx", "A 41077-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 41077-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 41077-2019.docx", "A 41077-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 41077-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 41077-2019.docx", "A 41077-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 41077-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 41077-2019.docx", "A 41077-2019")</f>
         <v/>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1238,27 +1238,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 43665-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 43665-2020.xlsx", "A 43665-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 43665-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 43665-2020.png", "A 43665-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 43665-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 43665-2020.docx", "A 43665-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 43665-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 43665-2020.docx", "A 43665-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 43665-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 43665-2020.docx", "A 43665-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 43665-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 43665-2020.docx", "A 43665-2020")</f>
         <v/>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
         <v>44340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1324,27 +1324,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 24680-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 24680-2021.xlsx", "A 24680-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 24680-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 24680-2021.png", "A 24680-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 24680-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 24680-2021.docx", "A 24680-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 24680-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 24680-2021.docx", "A 24680-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 24680-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 24680-2021.docx", "A 24680-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 24680-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 24680-2021.docx", "A 24680-2021")</f>
         <v/>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1410,27 +1410,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 29344-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 29344-2021.xlsx", "A 29344-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 29344-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 29344-2021.png", "A 29344-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 29344-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 29344-2021.docx", "A 29344-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 29344-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 29344-2021.docx", "A 29344-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 29344-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 29344-2021.docx", "A 29344-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 29344-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 29344-2021.docx", "A 29344-2021")</f>
         <v/>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
         <v>44676</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1496,27 +1496,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 16972-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 16972-2022.xlsx", "A 16972-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 16972-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 16972-2022.png", "A 16972-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 16972-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 16972-2022.docx", "A 16972-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 16972-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 16972-2022.docx", "A 16972-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 16972-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 16972-2022.docx", "A 16972-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 16972-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 16972-2022.docx", "A 16972-2022")</f>
         <v/>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1587,27 +1587,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 26286-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 26286-2022.xlsx", "A 26286-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 26286-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 26286-2022.png", "A 26286-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 26286-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 26286-2022.docx", "A 26286-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 26286-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 26286-2022.docx", "A 26286-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 26286-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 26286-2022.docx", "A 26286-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 26286-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 26286-2022.docx", "A 26286-2022")</f>
         <v/>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
         <v>44817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1673,27 +1673,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 39812-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 39812-2022.xlsx", "A 39812-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 39812-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 39812-2022.png", "A 39812-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 39812-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 39812-2022.docx", "A 39812-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 39812-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 39812-2022.docx", "A 39812-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 39812-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 39812-2022.docx", "A 39812-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 39812-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 39812-2022.docx", "A 39812-2022")</f>
         <v/>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
         <v>44903</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1759,27 +1759,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 58890-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 58890-2022.xlsx", "A 58890-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 58890-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 58890-2022.png", "A 58890-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 58890-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 58890-2022.docx", "A 58890-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 58890-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 58890-2022.docx", "A 58890-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 58890-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 58890-2022.docx", "A 58890-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 58890-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 58890-2022.docx", "A 58890-2022")</f>
         <v/>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
         <v>43562</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,27 +1844,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 18784-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 18784-2019.xlsx", "A 18784-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 18784-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 18784-2019.png", "A 18784-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 18784-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 18784-2019.docx", "A 18784-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 18784-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 18784-2019.docx", "A 18784-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 18784-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 18784-2019.docx", "A 18784-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 18784-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 18784-2019.docx", "A 18784-2019")</f>
         <v/>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
         <v>43650</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1929,27 +1929,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 33245-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 33245-2019.xlsx", "A 33245-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 33245-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 33245-2019.png", "A 33245-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 33245-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 33245-2019.docx", "A 33245-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 33245-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 33245-2019.docx", "A 33245-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 33245-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 33245-2019.docx", "A 33245-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 33245-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 33245-2019.docx", "A 33245-2019")</f>
         <v/>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
         <v>44217</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2014,27 +2014,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 3899-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 3899-2021.xlsx", "A 3899-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 3899-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 3899-2021.png", "A 3899-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 3899-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 3899-2021.docx", "A 3899-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 3899-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 3899-2021.docx", "A 3899-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 3899-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 3899-2021.docx", "A 3899-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 3899-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 3899-2021.docx", "A 3899-2021")</f>
         <v/>
       </c>
     </row>
@@ -2048,7 +2048,7 @@
         <v>44601</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2099,27 +2099,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 6545-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 6545-2022.xlsx", "A 6545-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 6545-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 6545-2022.png", "A 6545-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 6545-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 6545-2022.docx", "A 6545-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 6545-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 6545-2022.docx", "A 6545-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 6545-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 6545-2022.docx", "A 6545-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 6545-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 6545-2022.docx", "A 6545-2022")</f>
         <v/>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
         <v>44734</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2189,27 +2189,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 26040-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 26040-2022.xlsx", "A 26040-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 26040-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 26040-2022.png", "A 26040-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 26040-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 26040-2022.docx", "A 26040-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 26040-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 26040-2022.docx", "A 26040-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 26040-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 26040-2022.docx", "A 26040-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 26040-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 26040-2022.docx", "A 26040-2022")</f>
         <v/>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
         <v>44855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2274,27 +2274,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 47881-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 47881-2022.xlsx", "A 47881-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 47881-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 47881-2022.png", "A 47881-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 47881-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 47881-2022.docx", "A 47881-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 47881-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 47881-2022.docx", "A 47881-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 47881-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 47881-2022.docx", "A 47881-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 47881-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 47881-2022.docx", "A 47881-2022")</f>
         <v/>
       </c>
     </row>
@@ -2308,7 +2308,7 @@
         <v>44943</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2359,27 +2359,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 2555-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 2555-2023.xlsx", "A 2555-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 2555-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 2555-2023.png", "A 2555-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 2555-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 2555-2023.docx", "A 2555-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 2555-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 2555-2023.docx", "A 2555-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 2555-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 2555-2023.docx", "A 2555-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 2555-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 2555-2023.docx", "A 2555-2023")</f>
         <v/>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
         <v>44978</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2444,27 +2444,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 9934-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/artfynd/A 9934-2023.xlsx", "A 9934-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 9934-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/kartor/A 9934-2023.png", "A 9934-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 9934-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomål/A 9934-2023.docx", "A 9934-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 9934-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/klagomålsmail/A 9934-2023.docx", "A 9934-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 9934-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsyn/A 9934-2023.docx", "A 9934-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 9934-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MUNKEDAL/tillsynsmail/A 9934-2023.docx", "A 9934-2023")</f>
         <v/>
       </c>
     </row>
@@ -2478,7 +2478,7 @@
         <v>43342</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43342</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43363</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43385</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43391</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43406</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43416</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43431</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43432</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>43442</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43499</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43499</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43499</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43501</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43510</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43516</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43522</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43527</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43535</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43549</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43549</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43549</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43559</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43559</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43562</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43562</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43628</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43630</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43632</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43632</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43641</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43696</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43711</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43711</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43720</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43731</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43732</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43733</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43766</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43768</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43781</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43791</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43794</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43812</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43829</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43833</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43833</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43851</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43858</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43860</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43861</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43861</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43869</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43878</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43895</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43896</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43896</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43896</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43899</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43899</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43924</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43928</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43932</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43945</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43983</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44011</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44014</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44014</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44046</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44062</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44062</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44063</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44063</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44070</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44070</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44071</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44078</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44086</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44105</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44112</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44112</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44112</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44129</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44152</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44152</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44155</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44160</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44170</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44171</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44200</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44206</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44216</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44223</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44228</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44238</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44242</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44251</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44256</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44277</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44277</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44299</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44318</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44325</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44356</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44356</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44356</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44357</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44358</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44361</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44369</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44404</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44404</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44411</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44411</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44412</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44414</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44426</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44432</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44433</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44436</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44438</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44439</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44441</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44447</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44454</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44459</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44467</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44473</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44487</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44497</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44515</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44523</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44525</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44527</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44563</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44563</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44563</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44573</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44575</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44579</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44579</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44581</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44588</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44588</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44606</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44608</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44608</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44609</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44609</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44622</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44664</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44678</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44686</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44690</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44694</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44698</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44698</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44734</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44739</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44747</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44748</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44748</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44749</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44760</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44806</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44806</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44817</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44818</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44823</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44827</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44834</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44839</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44866</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44866</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44866</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44866</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44866</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44866</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44866</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44866</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44873</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44888</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44897</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44903</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44931</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44935</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44938</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44945</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44946</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44952</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44958</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44964</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44972</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44984</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44984</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44993</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45002</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45002</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45012</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45021</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45022</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45029</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45034</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45041</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45044</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45047</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45049</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45049</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45055</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45061</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45071</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45072</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>45072</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>45084</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45093</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45097</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45106</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>45127</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45127</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45127</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>45127</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45147</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45147</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>45149</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45153</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45153</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45155</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45155</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45159</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>

--- a/Översikt MUNKEDAL.xlsx
+++ b/Översikt MUNKEDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44342</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43578</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43858</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44920</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43695</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44676</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44903</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43562</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43650</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44217</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44601</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44734</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>44943</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>44978</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43342</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43342</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43363</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43385</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43391</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43406</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43416</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43431</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43432</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>43442</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43499</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43499</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43499</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43501</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43510</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43516</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43522</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43527</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43535</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43549</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43549</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43549</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43559</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43559</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43562</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43562</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43628</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43630</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43632</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43632</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43641</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43696</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43711</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43711</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43720</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43731</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43732</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43733</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43766</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43768</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43781</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43791</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43794</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43812</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43829</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43833</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43833</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43851</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43858</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43860</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43861</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43861</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43869</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43878</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43895</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43896</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43896</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43896</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43899</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43899</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43924</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43928</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43932</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43945</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43983</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44011</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44014</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44014</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44046</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44062</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44062</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44063</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44063</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44070</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44070</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44071</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44078</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44086</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44105</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44112</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44112</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44112</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44129</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44152</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44152</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44155</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44160</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44170</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44171</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44200</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44206</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44216</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44223</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44228</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44238</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44242</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44251</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44256</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44277</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44277</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44299</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44318</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44325</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44356</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44356</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44356</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44357</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44358</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44361</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44369</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44404</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44404</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44411</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44411</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44412</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44414</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44426</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44432</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44433</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44436</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44438</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44439</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44441</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44447</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44454</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44459</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44467</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44473</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44487</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44497</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44515</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44523</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44525</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44527</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44563</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44563</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44563</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44573</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44575</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44579</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44579</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44581</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44588</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44588</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44606</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44608</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44608</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44609</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44609</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44622</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44664</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44678</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44686</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44690</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44694</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44698</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44698</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44734</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44739</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44747</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44748</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44748</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44749</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44760</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44806</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44806</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44817</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44818</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44823</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44827</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44834</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44839</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44866</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44866</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44866</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44866</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44866</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44866</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44866</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44866</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44873</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44888</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44897</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44903</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44931</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44935</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44938</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44945</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44946</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44952</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44958</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44964</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44972</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44984</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44984</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44993</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45002</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45002</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45012</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45021</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45022</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45029</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45034</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45041</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45044</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45047</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45049</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45049</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45055</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45061</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45071</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45072</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>45072</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>45084</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45093</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45097</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45106</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>45127</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45127</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45127</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>45127</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45147</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45147</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>45149</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45153</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45153</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45155</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45155</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45159</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>

--- a/Översikt MUNKEDAL.xlsx
+++ b/Översikt MUNKEDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44342</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43578</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43858</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44920</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43695</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44676</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44903</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43562</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43650</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44217</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44601</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44734</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>44943</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>44978</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43342</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43342</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43363</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43385</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43391</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43406</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43416</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43431</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43432</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>43442</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43499</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43499</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43499</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43501</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43510</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43516</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43522</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43527</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43535</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43549</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43549</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43549</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43559</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43559</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43562</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43562</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43628</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43630</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43632</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43632</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43641</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43696</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43711</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43711</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43720</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43731</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43732</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43733</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43766</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43768</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43781</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43791</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43794</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43812</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43829</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43833</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43833</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43851</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43858</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43860</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43861</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43861</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43869</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43878</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43895</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43896</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43896</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43896</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43899</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43899</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43924</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43928</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43932</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43945</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43983</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44011</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44014</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44014</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44046</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44062</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44062</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44063</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44063</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44070</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44070</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44071</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44078</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44086</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44105</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44112</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44112</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44112</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44129</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44152</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44152</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44155</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44160</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44170</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44171</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44200</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44206</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44216</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44223</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44228</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44238</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44242</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44251</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44256</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44277</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44277</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44299</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44318</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44325</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44356</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44356</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44356</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44357</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44358</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44361</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44369</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44404</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44404</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44411</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44411</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44412</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44414</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44426</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44432</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44433</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44436</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44438</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44439</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44441</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44447</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44454</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44459</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44467</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44473</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44487</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44497</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44515</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44523</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44525</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44527</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44563</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44563</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44563</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44573</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44575</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44579</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44579</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44581</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44588</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44588</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44606</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44608</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44608</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44609</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44609</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44622</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44664</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44678</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44686</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44690</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44694</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44698</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44698</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44734</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44739</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44747</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44748</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44748</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44749</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44760</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44806</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44806</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44817</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44818</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44823</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44827</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44834</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44839</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44866</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44866</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44866</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44866</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44866</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44866</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44866</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44866</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44873</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44888</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44897</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44903</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44931</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44935</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44938</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44945</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44946</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44952</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44958</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44964</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44972</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44984</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44984</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44993</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45002</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45002</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45012</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45021</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45022</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45029</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45034</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45041</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45044</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45047</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45049</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45049</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45055</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45061</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45071</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45072</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>45072</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>45084</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45093</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45097</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45106</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>45127</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45127</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45127</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>45127</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45147</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45147</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>45149</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45153</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45153</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45155</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45155</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45159</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>

--- a/Översikt MUNKEDAL.xlsx
+++ b/Översikt MUNKEDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44342</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43578</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43858</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44920</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43695</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44676</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44903</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43562</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43650</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44217</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44601</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44734</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>44943</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>44978</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43342</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43342</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43363</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43385</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43391</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43406</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43416</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43431</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43432</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>43442</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43499</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43499</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43499</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43501</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43510</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43516</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43522</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43527</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43535</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43549</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43549</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43549</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43559</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43559</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43562</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43562</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43628</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43630</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43632</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43632</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43641</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43696</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43711</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43711</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43720</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43731</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43732</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43733</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43766</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43768</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43781</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43791</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43794</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43812</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43829</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43833</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43833</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43851</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43858</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43860</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43861</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43861</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43869</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43878</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43895</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43896</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43896</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43896</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43899</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43899</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43924</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43928</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43932</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43945</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43983</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44011</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44014</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44014</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44046</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44062</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44062</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44063</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44063</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44070</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44070</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44071</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44078</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44086</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44105</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44112</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44112</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44112</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44129</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44152</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44152</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44155</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44160</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44170</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44171</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44200</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44206</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44216</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44223</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44228</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44238</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44242</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44251</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44256</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44277</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44277</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44299</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44318</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44325</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44356</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44356</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44356</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44357</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44358</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44361</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44369</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44404</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44404</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44411</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44411</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44412</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44414</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44426</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44432</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44433</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44436</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44438</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44439</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44441</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44447</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44454</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44459</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44467</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44473</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44487</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44497</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44515</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44523</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44525</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44527</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44563</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44563</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44563</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44573</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44575</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44579</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44579</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44581</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44588</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44588</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44606</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44608</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44608</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44609</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44609</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44622</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44664</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44678</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44686</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44690</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44694</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44698</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44698</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44734</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44739</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44747</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44748</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44748</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44749</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44760</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44806</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44806</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44817</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44818</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44823</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44827</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44834</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44839</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44866</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44866</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44866</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44866</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44866</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44866</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44866</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44866</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44873</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44888</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44897</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44903</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44931</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44935</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44938</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44945</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44946</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44952</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44958</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44964</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44972</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44984</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44984</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44993</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45002</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45002</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45012</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45021</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45022</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45029</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45034</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45041</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45044</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45047</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45049</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45049</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45055</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45061</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45071</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45072</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>45072</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>45084</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45093</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45097</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45106</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>45127</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45127</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45127</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>45127</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45147</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45147</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>45149</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45153</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45153</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45155</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45155</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45159</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>

--- a/Översikt MUNKEDAL.xlsx
+++ b/Översikt MUNKEDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44342</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43578</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43858</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44920</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43695</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44676</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44903</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43562</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43650</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44217</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44601</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44734</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>44943</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>44978</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43342</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43342</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43363</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43385</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43391</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43406</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43416</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43431</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43432</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>43442</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43499</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43499</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43499</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43501</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43510</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43516</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43522</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43527</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43535</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43549</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43549</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43549</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43559</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43559</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43562</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43562</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43628</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43630</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43632</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43632</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43641</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43696</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43711</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43711</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43720</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43731</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43732</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43733</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43766</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43768</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43781</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43791</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43794</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43812</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43829</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43833</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43833</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43851</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43858</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43860</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43861</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43861</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43869</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43878</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43895</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43896</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43896</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43896</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43899</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43899</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43924</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43928</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43932</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43945</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43983</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44011</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44014</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44014</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44046</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44062</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44062</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44063</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44063</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44070</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44070</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44071</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44078</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44086</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44105</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44112</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44112</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44112</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44129</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44152</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44152</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44155</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44160</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44170</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44171</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44200</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44206</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44216</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44223</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44228</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44238</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44242</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44251</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44256</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44277</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44277</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44299</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44318</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44325</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44356</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44356</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44356</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44357</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44358</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44361</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44369</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44404</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44404</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44411</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44411</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44412</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44414</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44426</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44432</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44433</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44436</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44438</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44439</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44441</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44447</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44454</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44459</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44467</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44473</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44487</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44497</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44515</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44523</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44525</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44527</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44563</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44563</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44563</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44573</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44575</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44579</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44579</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44581</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44588</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44588</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44606</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44608</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44608</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44609</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44609</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44622</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44664</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44678</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44686</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44690</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44694</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44698</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44698</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44734</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44739</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44747</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44748</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44748</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44749</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44760</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44806</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44806</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44817</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44818</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44823</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44827</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44834</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44839</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44866</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44866</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44866</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44866</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44866</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44866</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44866</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44866</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44873</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44888</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44897</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44903</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44931</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44935</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44938</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44945</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44946</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44952</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44958</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44964</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44972</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44984</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44984</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44993</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45002</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45002</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45012</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45021</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45022</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45029</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45034</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45041</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45044</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45047</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45049</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45049</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45055</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45061</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45071</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45072</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>45072</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>45084</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45093</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45097</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45106</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>45127</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45127</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45127</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>45127</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45147</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45147</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>45149</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45153</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45153</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45155</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45155</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45159</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>

--- a/Översikt MUNKEDAL.xlsx
+++ b/Översikt MUNKEDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44342</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43578</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43858</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44920</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43695</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44676</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44903</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43562</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43650</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44217</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44601</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44734</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>44943</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>44978</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43342</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43342</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43363</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43385</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43391</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43406</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43416</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43431</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43432</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>43442</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43499</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43499</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43499</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43501</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43510</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43516</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43522</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43527</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43535</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43549</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43549</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43549</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43559</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43559</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43562</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43562</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43628</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43630</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43632</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43632</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43641</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43696</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43711</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43711</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43720</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43731</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43732</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43733</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43766</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43768</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43781</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43791</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43794</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43812</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43829</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43833</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43833</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43851</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43858</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43860</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43861</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43861</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43869</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43878</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43895</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43896</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43896</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43896</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43899</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43899</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43924</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43928</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43932</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43945</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43983</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44011</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44014</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44014</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44046</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44062</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44062</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44063</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44063</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44070</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44070</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44071</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44078</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44086</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44105</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44112</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44112</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44112</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44129</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44152</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44152</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44155</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44160</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44170</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44171</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44200</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44206</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44216</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44223</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44228</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44238</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44242</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44251</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44256</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44277</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44277</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44299</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44318</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44325</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44356</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44356</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44356</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44357</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44358</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44361</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44369</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44404</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44404</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44411</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44411</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44412</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44414</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44426</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44432</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44433</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44436</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44438</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44439</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44441</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44447</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44454</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44459</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44467</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44473</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44487</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44497</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44515</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44523</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44525</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44527</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44563</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44563</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44563</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44573</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44575</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44579</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44579</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44581</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44588</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44588</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44606</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44608</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44608</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44609</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44609</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44622</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44664</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44678</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44686</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44690</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44694</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44698</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44698</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44734</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44739</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44747</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44748</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44748</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44749</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44760</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44806</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44806</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44817</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44818</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44823</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44827</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44834</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44839</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44866</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44866</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44866</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44866</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44866</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44866</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44866</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44866</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44873</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44888</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44897</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44903</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44931</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44935</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44938</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44945</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44946</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44952</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44958</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44964</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44972</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44984</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44984</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44993</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45002</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45002</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45012</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45021</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45022</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45029</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45034</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45041</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45044</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45047</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45049</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45049</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45055</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45061</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45071</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45072</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>45072</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>45084</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45093</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45097</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45106</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>45127</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45127</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45127</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>45127</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45147</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45147</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>45149</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45153</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45153</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45155</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45155</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45159</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>

--- a/Översikt MUNKEDAL.xlsx
+++ b/Översikt MUNKEDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44342</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43578</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43858</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44920</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43695</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44676</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44903</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43562</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43650</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44217</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44601</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44734</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>44943</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>44978</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43342</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43342</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43363</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43385</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43391</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43406</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43416</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43431</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43432</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>43442</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43499</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43499</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43499</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43501</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43510</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43516</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43522</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43527</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43535</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43549</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43549</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43549</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43559</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43559</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43562</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43562</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43628</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43630</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43632</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43632</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43641</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43696</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43711</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43711</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43720</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43731</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43732</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43733</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43766</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43768</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43781</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43791</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43794</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43812</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43829</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43833</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43833</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43851</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43858</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43860</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43861</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43861</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43869</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43878</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43895</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43896</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43896</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43896</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43899</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43899</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43924</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43928</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43932</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43945</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43983</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44011</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44014</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44014</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44046</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44062</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44062</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44063</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44063</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44070</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44070</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44071</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44078</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44086</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44105</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44112</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44112</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44112</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44129</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44152</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44152</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44155</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44160</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44170</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44171</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44200</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44206</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44216</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44223</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44228</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44238</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44242</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44251</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44256</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44277</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44277</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44299</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44318</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44325</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44356</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44356</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44356</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44357</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44358</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44361</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44369</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44404</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44404</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44411</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44411</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44412</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44414</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44426</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44432</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44433</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44436</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44438</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44439</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44441</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44447</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44454</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44459</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44467</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44473</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44487</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44497</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44515</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44523</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44525</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44527</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44563</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44563</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44563</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44573</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44575</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44579</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44579</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44581</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44588</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44588</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44606</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44608</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44608</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44609</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44609</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44622</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44664</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44678</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44686</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44690</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44694</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44698</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44698</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44734</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44739</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44747</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44748</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44748</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44749</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44760</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44806</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44806</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44817</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44818</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44823</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44827</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44834</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44839</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44866</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44866</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44866</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44866</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44866</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44866</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44866</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44866</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44873</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44888</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44897</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44903</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44931</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44935</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44938</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44945</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44946</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44952</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44958</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44964</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44972</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44984</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44984</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44993</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45002</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45002</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45012</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45021</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45022</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45029</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45034</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45041</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45044</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45047</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45049</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45049</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45055</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45061</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45071</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45072</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>45072</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>45084</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45093</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45097</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45106</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>45127</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45127</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45127</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>45127</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45147</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45147</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>45149</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45153</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45153</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45155</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45155</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45159</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>

--- a/Översikt MUNKEDAL.xlsx
+++ b/Översikt MUNKEDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44342</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43578</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43858</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44920</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43695</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44676</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44903</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43562</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43650</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44217</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44601</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44734</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>44943</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>44978</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43342</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43342</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43363</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43385</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43391</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43406</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43416</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43431</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43432</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>43442</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43499</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43499</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43499</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43501</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43510</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43516</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43522</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43527</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43535</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43549</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43549</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43549</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43559</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43559</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43562</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43562</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43628</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43630</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43632</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43632</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43641</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43696</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43711</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43711</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43720</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43731</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43732</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43733</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43766</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43768</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43781</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43791</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43794</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43812</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43829</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43833</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43833</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43851</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43858</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43860</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43861</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43861</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43869</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43878</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43895</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43896</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43896</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43896</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43899</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43899</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43924</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43928</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43932</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43945</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43983</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44011</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44014</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44014</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44046</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44062</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44062</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44063</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44063</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44070</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44070</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44071</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44078</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44086</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44105</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44112</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44112</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44112</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44129</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44152</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44152</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44155</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44160</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44170</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44171</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44200</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44206</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44216</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44223</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44228</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44238</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44242</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44251</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44256</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44277</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44277</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44299</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44318</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44325</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44356</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44356</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44356</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44357</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44358</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44361</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44369</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44404</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44404</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44411</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44411</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44412</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44414</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44426</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44432</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44433</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44436</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44438</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44439</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44441</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44447</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44454</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44459</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44467</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44473</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44487</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44497</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44515</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44523</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44525</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44527</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44563</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44563</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44563</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44573</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44575</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44579</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44579</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44581</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44588</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44588</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44606</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44608</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44608</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44609</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44609</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44622</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44664</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44678</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44686</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44690</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44694</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44698</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44698</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44734</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44739</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44747</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44748</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44748</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44749</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44760</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44806</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44806</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44817</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44818</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44823</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44827</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44834</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44839</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44866</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44866</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44866</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44866</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44866</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44866</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44866</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44866</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44873</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44888</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44897</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44903</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44931</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44935</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44938</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44945</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44946</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44952</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44958</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44964</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44972</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44984</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44984</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44993</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45002</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45002</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45012</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45021</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45022</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45029</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45034</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45041</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45044</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45047</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45049</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45049</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45055</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45061</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45071</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45072</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>45072</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>45084</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45093</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45097</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45106</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>45127</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45127</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45127</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>45127</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45147</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45147</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>45149</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45153</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45153</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45155</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45155</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45159</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>

--- a/Översikt MUNKEDAL.xlsx
+++ b/Översikt MUNKEDAL.xlsx
@@ -572,7 +572,7 @@
         <v>44342</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>43578</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         <v>43819</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>43858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>43858</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44920</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43695</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>44078</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
         <v>44340</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44361</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>44676</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44735</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         <v>44817</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44903</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         <v>43562</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>43650</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44217</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44601</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>44734</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44855</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         <v>44943</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>44978</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43342</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         <v>43342</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
         <v>43342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>43342</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>43357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>43360</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>43363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>43363</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>43385</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         <v>43385</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43385</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43388</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43391</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43396</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43406</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43415</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43416</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
         <v>43426</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>43426</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         <v>43430</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>43430</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>43431</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>43432</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>43437</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>43442</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>43455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>43499</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43499</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43499</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>43501</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43510</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43510</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>43516</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>43517</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>43518</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5259,7 +5259,7 @@
         <v>43522</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
         <v>43525</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         <v>43527</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43529</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43529</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43529</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43535</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>43537</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43549</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43549</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43549</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>43550</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43559</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43559</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>43562</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43562</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43588</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43588</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43628</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43630</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43632</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43632</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>43641</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>43696</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>43711</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6719,7 +6719,7 @@
         <v>43711</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43720</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>43724</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6890,7 +6890,7 @@
         <v>43731</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6947,7 +6947,7 @@
         <v>43732</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43733</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43766</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43768</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43781</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>43791</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>43794</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>43812</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>43829</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>43832</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>43832</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>43833</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>43833</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>43851</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>43858</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7864,7 +7864,7 @@
         <v>43860</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>43861</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43861</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>43869</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>43878</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>43895</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>43896</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>43896</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>43896</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>43896</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43896</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43899</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43899</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43908</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43920</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43920</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43924</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43928</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>43932</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43945</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43957</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43964</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43977</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43983</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>43987</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44011</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44014</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44014</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44014</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44015</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44028</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44046</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44062</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>44062</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44063</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44063</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44070</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44070</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44071</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>44078</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44086</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44105</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44112</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44112</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44112</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44112</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44112</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44125</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44129</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44152</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44152</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44153</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44153</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44155</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44160</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44161</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44166</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44170</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44171</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44200</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44206</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>44216</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>44223</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44228</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>44238</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44242</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44246</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44251</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44256</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44277</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44277</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44299</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44318</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>44325</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44351</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44356</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44356</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44356</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>44357</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44358</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44361</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>44369</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44404</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44404</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44411</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44411</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44412</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44414</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44426</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44432</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44433</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44436</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44438</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44439</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>44441</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>44447</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>44454</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44459</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44467</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>44473</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44487</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44497</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44509</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44515</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44523</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14090,7 +14090,7 @@
         <v>44525</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44526</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44527</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44563</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44563</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44563</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44573</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44575</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44579</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44579</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44581</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44588</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44588</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>44589</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>44592</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>44593</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>44606</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44606</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44608</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44608</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44609</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44609</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44622</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44630</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44636</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>44664</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>44678</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>44683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15783,7 +15783,7 @@
         <v>44683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44686</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44690</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15954,7 +15954,7 @@
         <v>44691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
         <v>44694</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16068,7 +16068,7 @@
         <v>44698</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>44698</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44715</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44734</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>44739</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         <v>44747</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44748</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44748</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44749</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44760</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44806</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16705,7 +16705,7 @@
         <v>44806</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>44817</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>44818</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44823</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44827</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17005,7 +17005,7 @@
         <v>44834</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
         <v>44839</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17124,7 +17124,7 @@
         <v>44866</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         <v>44866</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>44866</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>44866</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>44866</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44866</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44866</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44866</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44873</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17637,7 +17637,7 @@
         <v>44888</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44897</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>44903</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44931</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44935</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44938</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44945</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44946</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44952</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44958</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>44964</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>44972</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44978</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18532,7 +18532,7 @@
         <v>44978</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18589,7 +18589,7 @@
         <v>44978</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>44980</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>44984</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>44984</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>44984</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>44984</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44993</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45002</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>45002</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45005</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45012</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45021</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45022</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45029</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45034</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45041</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45044</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19568,7 +19568,7 @@
         <v>45047</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
         <v>45049</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>45049</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45051</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19796,7 +19796,7 @@
         <v>45055</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19853,7 +19853,7 @@
         <v>45061</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>45061</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45071</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20096,7 +20096,7 @@
         <v>45072</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20158,7 +20158,7 @@
         <v>45072</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>45084</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20448,7 +20448,7 @@
         <v>45093</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>45097</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>45106</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20624,7 +20624,7 @@
         <v>45120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20681,7 +20681,7 @@
         <v>45127</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45127</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45127</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>45127</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20909,7 +20909,7 @@
         <v>45127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20966,7 +20966,7 @@
         <v>45147</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45147</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>45149</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>45153</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>45153</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45155</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45155</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45159</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
